--- a/doc/Prog.3 - Plantilla planificación.xlsx
+++ b/doc/Prog.3 - Plantilla planificación.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{673E8946-3241-4201-A040-D67432176ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3132E4BF-2BDA-434A-8681-68105FA70D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="hidden" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="hidden" xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="1" r:id="rId1"/>
